--- a/official_results/Resnet_results.xlsx
+++ b/official_results/Resnet_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,1707 @@
         <v>64</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.982927668569393</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, slope, direction, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I5" t="n">
+        <v>64</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>39 of 300</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>11:03:08</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>319.75</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.074360375924319</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I6" t="n">
+        <v>64</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>67 of 300</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>11:09:02</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>531.77</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.263395445686395</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I7" t="n">
+        <v>64</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>38 of 300</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>11:14:04</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>299.16</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.704807728643366</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I8" t="n">
+        <v>64</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>103 of 300</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>11:14:16</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>766.55</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.891345662173988</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, slope, direction, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>85 of 300</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>11:14:54</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>703.64</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.728971622515123</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I10" t="n">
+        <v>64</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>11:20:49</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>402.86</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.94178727579216</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, slope, direction, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I11" t="n">
+        <v>64</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>75 of 300</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>11:25:19</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>621.48</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.870346119708125</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I12" t="n">
+        <v>64</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>96 of 300</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11:26:04</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>705.6</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.756929347178704</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I13" t="n">
+        <v>64</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>70 of 300</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>11:29:14</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>503.12</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.822459750782534</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I14" t="n">
+        <v>64</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>11:36:42</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>634.64</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.855653279423249</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I15" t="n">
+        <v>64</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>92 of 300</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>11:40:21</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>664.9</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.725300659384137</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I16" t="n">
+        <v>128</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>67 of 300</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>11:41:31</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>286.47</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.849971452540739</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I17" t="n">
+        <v>128</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>96 of 300</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>11:48:26</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>412.29</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.890957482889017</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>107 of 300</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>11:53:41</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>796.74</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.709271865020276</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I19" t="n">
+        <v>128</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>68 of 300</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>11:58:55</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>311.8</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.843741811898614</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I20" t="n">
+        <v>128</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>194 of 300</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>12:02:13</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>824.65</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.870306619347157</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I21" t="n">
+        <v>128</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>12:02:51</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>233.61</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.801060069502688</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I22" t="n">
+        <v>128</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>64 of 300</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>12:07:43</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>289.43</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.739349204477668</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I23" t="n">
+        <v>128</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>94 of 300</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>12:14:14</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>389.53</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.881057497442495</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I24" t="n">
+        <v>128</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>111 of 300</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>12:21:58</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>461.83</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.81090889117718</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I25" t="n">
+        <v>128</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>130 of 300</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>12:31:01</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>540.53</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.793088375387386</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I26" t="n">
+        <v>128</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>108 of 300</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>13:57:07</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>791.03</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.749003813445521</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I27" t="n">
+        <v>128</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>69 of 300</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>14:05:30</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>499.62</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.966728630588896</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I28" t="n">
+        <v>128</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>85 of 300</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>14:15:55</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>622.62</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.641573617565515</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I29" t="n">
+        <v>128</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>11:40:35</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>2233.22</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.903499135828818</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I30" t="n">
+        <v>128</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>12:16:20</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2142.54</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.808626295347353</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I31" t="n">
+        <v>128</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>12:51:57</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>2135.24</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/official_results/Resnet_results.xlsx
+++ b/official_results/Resnet_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1038,281 @@
         <v>128</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.624058571689464</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>53 of 300</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15:57:33</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.109736611330201</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>200 of 300</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>16:09:15</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>699</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.027833299246221</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>54 of 300</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>16:12:16</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>179.07</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.99758151808144</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>55 of 300</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16:15:22</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>182.83</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.793230757823358</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>84 of 300</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>16:20:06</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>281.81</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/official_results/Resnet_results.xlsx
+++ b/official_results/Resnet_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,6 +1313,281 @@
         <v>128</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.618978059869289</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>154 of 300</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>10:50:47</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>490.76</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.173679345435894</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>103 of 300</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10:56:14</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>324.72</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.755145756133408</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>105 of 300</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>11:01:45</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>329.55</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.876111871519353</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>121 of 300</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>11:08:09</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>382.44</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.755267881476985</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>140 of 300</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>11:15:39</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>447.93</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
